--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7669317038.040582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004571350658679437</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.990112771825917</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.926181376339074</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.990112771825917</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4666746427.639224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005553914016494018</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.655714019974397</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9504565188959987</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.655714019974397</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6185828025.76443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.004027419232855338</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.649459925731701</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9910523519151522</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.649459925731701</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3112754424.695691</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004445829858701106</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.484676539687248</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.795663879469197</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.484676539687248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6150576236.33886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002195693442194835</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.213580537465825</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8214628996148029</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.213580537465825</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7078510967.85859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001141623573298511</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.661274729686953</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9857034559945964</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.661274729686953</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5085633132.364935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002646156653032396</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.5899612401861</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9515683299307899</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.5899612401861</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5204485071.875386</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004511705588923223</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.842233537853736</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9654044277003692</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.842233537853736</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2882325513.641455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00367165621612615</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1575587739663534</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.652276895996082</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3647680584289509</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.652276895996082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3715023034.691583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001117013092466858</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.309048916478822</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.734870431855559</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.309048916478822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8884396820.496407</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00167873776949607</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.171013014449924</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9754137364778112</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.171013014449924</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5102715381.437421</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003827306228386589</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.047101788888023</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.046532860427682</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.047101788888023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6820238243.135369</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002182196002942171</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9315820631743704</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.658361051810029</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.137759083918739</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.658361051810029</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7183419942.625279</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004755285317695667</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.339348030640187</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9743291359156988</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.339348030640187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7140748012.355444</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004772319904483536</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9600385632970014</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.147749481950044</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.205406186000916</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.147749481950044</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5681417930.136793</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002476360723077215</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.611520724749492</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9814033494431333</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.611520724749492</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4756542228.591585</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009454948088429008</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.926373034849557</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9977206400013268</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.926373034849557</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4689719655.39052</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002286637078977034</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.08485533731086</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9161622508567212</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.08485533731086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4486636404.30483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001044829018758276</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7649737866051766</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.618563077747352</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9715358618748945</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.618563077747352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6036906190.94132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005083063228283903</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9340335694051188</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.833323973072788</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.127791834000262</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.833323973072788</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4510143953.930855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004146792230569852</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.07798367283509</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9136355220307137</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.07798367283509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7421591458.80423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00192129844170882</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.014049338393593</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9010340010759912</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.014049338393593</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5550010952.202958</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004373976615361359</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.081147536676337</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.063384585777181</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.081147536676337</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5683756735.350155</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003734914031867695</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.139085293163999</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9161622508567212</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.139085293163999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5334405495.348058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00133788666717712</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942154</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.513014837680492</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8739553238566056</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.513014837680492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5504227001.41964</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003018271354407659</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.705425933128208</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9659054225580873</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.705425933128208</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9115134930.505089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003988821003324207</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.39072439331627</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8358447629605186</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.39072439331627</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>8121845581.926652</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001517180705518725</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.786600170393678</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9982054156276138</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.786600170393678</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6728837922.436129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003551567892349704</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9796738984883395</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.948892963128162</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.212333137922864</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.948892963128162</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>4991074772.090117</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002582496560307163</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.740787932915192</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9465074758046284</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.740787932915192</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3303035552.85343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001242557277332538</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.365833243306326</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9321796827382964</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.365833243306326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>4919141660.708098</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003312116867719704</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.172828832375068</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8237940649983657</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.172828832375068</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5181268636.153544</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00363276382233865</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8821602661972139</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5685022546.848722</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001761038176353846</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.968108163970166</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.010357749546728</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.968108163970166</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7288219701.922668</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002395886348271389</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.664100244720844</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9837560353444952</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.664100244720844</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6029498379.801611</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004083631201051758</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.8547237813364</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.049832683124759</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.8547237813364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3800501510.120087</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003976996724312516</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.996926349738319</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9068824246680891</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.996926349738319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5040067378.506455</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003119748278581261</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.886788128108736</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.909841872258224</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.886788128108736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5209545833.014741</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004634616941548402</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.882600959847528</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.038970936140033</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-5.882600959847528</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6558847570.064326</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001123597428999793</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.702361043192936</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9392660284276088</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.702361043192936</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5728911030.029757</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004994444588347189</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.1937445062083585</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.579157412663472</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.4696770101203194</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.579157412663472</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5758717276.821224</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00441819081405973</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.811938011509511</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9760015743949072</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.811938011509511</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6962776580.570312</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001883488910703255</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.198903469137304</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9534873428641576</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.198903469137304</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4259839882.006618</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001445681254161191</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.183162828925319</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.964184623962898</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.4278690735264614</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-4.964184623962898</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11049880928.77618</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00472613692112282</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.103870372974408</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8263570934876017</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-4.103870372974408</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9179304273.738197</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002345761059009366</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.609448151928903</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9551962736156674</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-5.609448151928903</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5737042617.582415</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00238042330809</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.022211720456779</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.00721333659906</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.022211720456779</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3995355616.129856</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004067952929269644</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.496038972258918</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8243811241350516</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.496038972258918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8589059783.759782</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002801928067442339</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.76517740455591</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.034892186308413</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.76517740455591</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3913596266.277343</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005181767997361373</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.146517501512886</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9667028600281595</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.146517501512886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7870100774.465145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001378159783913348</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.614001558773644</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8787813590187237</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.614001558773644</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5670142902.891233</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003259931823503107</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.093797433268074</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.256959342383893</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.093797433268074</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4878082137.342531</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004382652613092343</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8635188031089569</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.283941016253211</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.036659693302975</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.283941016253211</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6495344510.944796</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003941604800108918</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.672460556958024</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.944877840376753</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.672460556958024</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6362052326.118989</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002620642584768783</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.728000234310529</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.965107326191036</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.728000234310529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8388219389.060798</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002899437746971826</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.638865072582677</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8568501718982655</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.638865072582677</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4910988729.045856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002132029404540905</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.979874165180207</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7359182603218118</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.979874165180207</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5812776759.927385</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003055759394100605</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.041073934101669</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.890410041024165</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.041073934101669</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4123559969.345486</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003857867440594986</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.559448303147845</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8678850425145263</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.559448303147845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6174392089.461429</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005649465068087447</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.750608857720746</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.968887921287787</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.750608857720746</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4149766943.921088</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00369471891210844</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.262648428841759</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9036953100916375</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-5.262648428841759</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8212755023.625991</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003946106671518557</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.040958804402566</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9287706305993709</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.040958804402566</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3462106775.131686</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005089807724723229</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.651749196347568</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9406959776300802</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-5.651749196347568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5407402607.75892</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005329095254456155</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.131963848744588</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.037676421613433</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.131963848744588</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5476666140.892616</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002872315616070483</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.703792335453014</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8720872089247719</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.703792335453014</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6019982034.829607</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004747127809719646</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.062265776389003</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9532807008716676</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.062265776389003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5482364078.961739</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002582352710595222</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.94550377403402</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7428022136505598</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.94550377403402</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5731372857.364245</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001104369446488196</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.765165580643417</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.011120129524002</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.765165580643417</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6264310451.872393</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003116499575237811</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8825441984428211</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.508983886154481</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.161893835553366</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-6.508983886154481</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3970638242.653912</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002717211963329352</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.927292217017777</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8794337910670295</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.927292217017777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6048693066.665871</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002499660442525041</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.971095226256724</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.129911739973181</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.971095226256724</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8111676399.916963</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001224796078903307</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.09768737913899543</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.673670729842977</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.267534727598247</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.673670729842977</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5264639786.773509</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003675139490151159</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8949025268079986</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5.628445024924639</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.170665318756158</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-5.628445024924639</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8180430627.025986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004001989478725271</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9367454450850972</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.21109221085472</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.081042201401673</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.21109221085472</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4786192203.442883</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00307399972408813</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1039587300642555</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.167973528689144</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.1700687017623251</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.167973528689144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5541622331.42135</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005722913526063927</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.731901458077576</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.016335268209019</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.731901458077576</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7004007392.716046</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00415602257396867</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.718035491277959</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9526788434423457</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.718035491277959</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6479577055.152503</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002133759393372241</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.001902135833416</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9333132663395735</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.001902135833416</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6251714760.469332</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002417784368371306</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.375970356680268</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.982972432379064</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.375970356680268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6396743941.101628</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003210272322206569</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.900361954523487</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.026965363347319</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.900361954523487</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8121245339.640176</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004583820052778293</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.771400908213391</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9640111300458299</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.771400908213391</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7550813294.659339</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002960933965628798</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8916474303829695</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.294035634179398</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.063058265713548</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.294035634179398</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4746635337.636706</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004682473633681287</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.052001607950012</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.968887921287787</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.052001607950012</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3640903147.660037</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003329993366532339</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.01934692590563</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.4714045207910317</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.01934692590563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7857806280.438368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002259867511375559</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.342374994578003</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9957967209233446</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.342374994578003</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3483048559.147272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00102521150310589</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.349001807709021</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9506637747698571</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.349001807709021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8279430166.437758</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004779887073280346</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.012140906393632</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8415713591501013</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.012140906393632</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6678433056.588304</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003339341153820514</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.184272881123076</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9412101245912373</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.184272881123076</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5636034488.113116</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003007050793198001</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.610819998706406</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9680922836991639</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.610819998706406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7281217776.496017</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003973090284379316</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.841461532451703</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8818351191131327</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.841461532451703</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5398304919.644473</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003139904402570739</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.152352154660325</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.036380290145089</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.152352154660325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5670120431.773891</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001830076406705971</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
         <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.08550209452734556</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.381200104791651</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4197460927006617</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.381200104791651</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7328348307.091096</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009621133988561054</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.026936388896827</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.073281742797405</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.026936388896827</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7210142465.330896</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002831992272625091</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.012753261243845</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9045475928557475</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.012753261243845</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8298208928.75205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002096344165714971</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.05478730007132315</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.71833479365209</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.416365904935863</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.71833479365209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5496328866.742601</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004807118465720597</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9119616701475048</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.822499575055567</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.177088074537999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.822499575055567</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8114209029.895443</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00352225472765309</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.895439863347253</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.855280051743783</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.895439863347253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3039222312.312018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004087637869262127</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.127377535537134</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9150074194669031</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.127377535537134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4514900066.39467</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00225316413080803</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.010554875949251</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8134611999373726</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.010554875949251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8086973262.046386</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001285011310053672</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5914011783923654</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.363435862295275</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8975066542644078</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.363435862295275</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7669317038.040582</v>
+        <v>1637746478.717161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004571350658679437</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.1008997379086137</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03808176623211556</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>818873186.0500418</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4666746427.639224</v>
+        <v>1805137476.570091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005553914016494018</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1546889858185988</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03566893466508133</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>902568747.8791764</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6185828025.76443</v>
+        <v>3430434537.528844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004027419232855338</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1634802670169283</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03761908871451625</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1715217242.231465</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3937194171.009973</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1084949330291962</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03454660507519541</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3112754424.695691</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004445829858701106</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v>1968597093.105799</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6150576236.33886</v>
+        <v>2614305450.338974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002195693442194835</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+        <v>0.1107857489822843</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0341783194719216</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1307152688.050406</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7078510967.85859</v>
+        <v>2819285108.105678</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001141623573298511</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.0722088763875593</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03932608487667956</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>5</v>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1409642536.025063</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5085633132.364935</v>
+        <v>3972335394.63309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002646156653032396</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+        <v>0.1624615814865797</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03070752283354035</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1986167853.920057</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5204485071.875386</v>
+        <v>2186315971.002751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004511705588923223</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1477231493186207</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03200608161538511</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1093157985.959325</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>571</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4544358496.660184</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2013599469947689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04223071817557091</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2882325513.641455</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00367165621612615</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2272179312.093976</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3715023034.691583</v>
+        <v>3017753879.334311</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001117013092466858</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1355075827012936</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04900743288948631</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1508876883.517767</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8884396820.496407</v>
+        <v>2396417028.802431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00167873776949607</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
+        <v>0.1831551483502367</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04848269753993986</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1198208476.858261</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3995613963.607429</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.080871009558713</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0243372973914145</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
-        <v>480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5102715381.437421</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.003827306228386589</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v>1997807036.677552</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6820238243.135369</v>
+        <v>2893989734.171757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002182196002942171</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>0.1590085838022415</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03892150856294278</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1446994908.957991</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7183419942.625279</v>
+        <v>1380473739.859378</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004755285317695667</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>0.09119823350085678</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04804912302124257</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>690236928.0597602</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7140748012.355444</v>
+        <v>2488706036.332432</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004772319904483536</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+        <v>0.09751889027328725</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03996227709382501</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1244353049.660541</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5681417930.136793</v>
+        <v>4883287007.317906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002476360723077215</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1661519844602318</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03831467073868609</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2441643494.284924</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4756542228.591585</v>
+        <v>2636244164.174401</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009454948088429008</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
+        <v>0.1684924791846079</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02919353500127113</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1318122138.43048</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4689719655.39052</v>
+        <v>1112632558.738967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002286637078977034</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1656409699519801</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02275621347686931</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>556316335.7542124</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4486636404.30483</v>
+        <v>2468857269.191658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001044829018758276</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.09756635892543224</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0283387748795932</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1234428610.717579</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6036906190.94132</v>
+        <v>2341075143.137369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005083063228283903</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
+        <v>0.0882153997785308</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04349684595554981</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1170537574.64911</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4510143953.930855</v>
+        <v>3789891790.759019</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004146792230569852</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.116406324336063</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04271520904202939</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1894945909.325107</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7421591458.80423</v>
+        <v>1247032144.46512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00192129844170882</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
+        <v>0.1703484164774578</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03975438369956127</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>623516100.5468298</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5550010952.202958</v>
+        <v>3049686821.00916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004373976615361359</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
+        <v>0.1410578437693336</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0278557876356476</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1524843442.100295</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5683756735.350155</v>
+        <v>1177253171.206742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003734914031867695</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+        <v>0.1131970389771191</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02081491966096904</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>588626608.5091318</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5334405495.348058</v>
+        <v>1080307084.552531</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00133788666717712</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08967956801427936</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02531702804828875</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>540153533.6566743</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5504227001.41964</v>
+        <v>4250825765.397229</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003018271354407659</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1434009990759218</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01795811659361082</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2125412880.077338</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9115134930.505089</v>
+        <v>2604639752.355858</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003988821003324207</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
+        <v>0.09299016860307975</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04449697618800159</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1302319852.806443</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>8121845581.926652</v>
+        <v>4150489382.887518</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001517180705518725</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.1457462451419112</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03887342362940521</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2075244697.639416</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6728837922.436129</v>
+        <v>1624237940.687114</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003551567892349704</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
+        <v>0.1173266052687476</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02945528365518088</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>812118964.7842181</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>4991074772.090117</v>
+        <v>1176073633.700029</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002582496560307163</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.09546674171443095</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03901414005474476</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>588036773.6680378</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3303035552.85343</v>
+        <v>1705316342.844443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001242557277332538</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08324398514125515</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03545345582442774</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>852658281.9926679</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>4919141660.708098</v>
+        <v>2601973045.727437</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003312116867719704</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
+        <v>0.1447494046868411</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04215541431373863</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1300986552.132249</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5181268636.153544</v>
+        <v>1225284681.5756</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00363276382233865</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.1145111874629229</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02301773616174194</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>612642341.3869841</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5685022546.848722</v>
+        <v>1055488708.354994</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001761038176353846</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
+        <v>0.07323904877871841</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03337145073848331</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>527744360.3170986</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3128804995.856097</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1649133687983535</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0234669892330785</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7288219701.922668</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.002395886348271389</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
+      <c r="J36" t="n">
+        <v>1564402469.143702</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6029498379.801611</v>
+        <v>2578808684.72928</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004083631201051758</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
+        <v>0.0899282496994421</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03275701428195789</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1289404448.978397</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3800501510.120087</v>
+        <v>1850100233.650656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003976996724312516</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1154465972564825</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03735557374441594</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>925050116.3387617</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5040067378.506455</v>
+        <v>1916768737.602277</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003119748278581261</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1501992371701498</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02368047762504038</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>958384375.6959136</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5209545833.014741</v>
+        <v>1112369250.532395</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004634616941548402</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1219277160183602</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03912450276301493</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>556184688.2168413</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6558847570.064326</v>
+        <v>2614653665.651482</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001123597428999793</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
+        <v>0.1016527525589438</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04174619994746049</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1307326846.661893</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5728911030.029757</v>
+        <v>3903880059.50967</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004994444588347189</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.1060891437586291</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03657831492559124</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1951940052.158551</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3016557966.320658</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1947344958568905</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01702071075939517</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5758717276.821224</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.00441819081405973</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1508278979.607048</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6962776580.570312</v>
+        <v>2096780671.11355</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001883488910703255</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.08711584797990159</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02789119274971058</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1048390460.875586</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4259839882.006618</v>
+        <v>1770096443.011345</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001445681254161191</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1195416667376898</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04797662256076209</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>885048188.9299939</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11049880928.77618</v>
+        <v>5008885154.459045</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00472613692112282</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.1566944125140151</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05331246182571591</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2504442604.273189</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9179304273.738197</v>
+        <v>3934776347.815188</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002345761059009366</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1583094714989117</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04726955928566817</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1967388169.050511</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3264370327.36307</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.09064914218745679</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03291490613260189</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>6</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5737042617.582415</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00238042330809</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
+      <c r="J48" t="n">
+        <v>1632185240.522131</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3995355616.129856</v>
+        <v>1917944003.633249</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004067952929269644</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1618422958744269</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04258498153445983</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>958971968.4728196</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8589059783.759782</v>
+        <v>3092998116.148741</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002801928067442339</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
+        <v>0.1654848455692921</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04394714822996582</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1546499111.035249</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3913596266.277343</v>
+        <v>1547709430.648916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005181767997361373</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1874600521227958</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04067100125831698</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>773854710.3119956</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7870100774.465145</v>
+        <v>3270183019.120894</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001378159783913348</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1044932738569986</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04896972476603938</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>4</v>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1635091608.691364</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5670142902.891233</v>
+        <v>2750579628.673867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003259931823503107</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
+        <v>0.1613960389881032</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02446359952497481</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1375289863.692509</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4878082137.342531</v>
+        <v>4745340717.409653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004382652613092343</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1156560805160996</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03996424259869751</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2372670480.929299</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3059830573.95731</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2090070107137101</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02081130598716005</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6495344510.944796</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.003941604800108918</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1529915220.060929</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6362052326.118989</v>
+        <v>1478882883.609765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002620642584768783</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1112893136848406</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05115630868141083</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>739441486.8650393</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8388219389.060798</v>
+        <v>4383258909.628427</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002899437746971826</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
+        <v>0.1325274521649066</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01792012552539502</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2191629574.968062</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4910988729.045856</v>
+        <v>1393673538.87588</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002132029404540905</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1552922738790194</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02452170748433051</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>696836809.9933145</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5812776759.927385</v>
+        <v>3709478574.18199</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003055759394100605</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.1008005262387423</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03045786549211223</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1854739276.767826</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4123559969.345486</v>
+        <v>3531922157.651825</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003857867440594986</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1331609010214336</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03337304872762126</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1765961204.521608</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6174392089.461429</v>
+        <v>2360727117.763775</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005649465068087447</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
+        <v>0.1452104311582533</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03306528550048279</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1180363599.40031</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4149766943.921088</v>
+        <v>1485072233.627345</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00369471891210844</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1547349203812379</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03327345222911009</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>742536097.3642688</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8212755023.625991</v>
+        <v>4013109449.180821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003946106671518557</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
+        <v>0.09140174461549253</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04656473356813938</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2006554786.030377</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3462106775.131686</v>
+        <v>5518295183.417832</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005089807724723229</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1577130669527922</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03468757830786635</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2759147734.083698</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3994453861.900101</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1071640113476157</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02622282991654677</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5407402607.75892</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.005329095254456155</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1997226949.648134</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5476666140.892616</v>
+        <v>5458878383.140076</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002872315616070483</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
+        <v>0.1025638407581232</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03338109063148271</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2729439242.969968</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6019982034.829607</v>
+        <v>3117124513.096968</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004747127809719646</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.07347341672760029</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04877315450648267</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1558562264.628827</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5482364078.961739</v>
+        <v>5632098560.737329</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002582352710595222</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
+        <v>0.1389216335008931</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04917035444517216</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2816049374.646815</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5731372857.364245</v>
+        <v>2245047823.313041</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001104369446488196</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1474900205409941</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05884270970462961</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1122523948.030333</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6264310451.872393</v>
+        <v>3278109519.156538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003116499575237811</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
+        <v>0.08617772433007778</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03885695665446186</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1639054754.341531</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3970638242.653912</v>
+        <v>3730470218.442577</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002717211963329352</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.168545855472753</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02679297058806832</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1865235119.942499</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6048693066.665871</v>
+        <v>1441422562.506818</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002499660442525041</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
+        <v>0.08015642618414789</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04076392891289247</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>720711317.3951112</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8111676399.916963</v>
+        <v>3491276466.390203</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001224796078903307</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.0745684726084206</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03812059542525337</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1745638183.937782</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5264639786.773509</v>
+        <v>2964854131.74602</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003675139490151159</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
+        <v>0.1266761172201788</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02975898573379033</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1482427133.979052</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8180430627.025986</v>
+        <v>1743948236.353013</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004001989478725271</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
+        <v>0.1388670309962925</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03093659415945675</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>871974106.1140302</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4786192203.442883</v>
+        <v>4973633925.57868</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00307399972408813</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1216248735367623</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03220676547201319</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2486816988.045074</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5541622331.42135</v>
+        <v>2272296601.548144</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005722913526063927</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
+        <v>0.1824188313736864</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02905806230566522</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1136148402.171417</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7004007392.716046</v>
+        <v>3220098126.386354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00415602257396867</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
+        <v>0.08946913799775494</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04004830491378211</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1610049084.435903</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6479577055.152503</v>
+        <v>1784813332.557736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002133759393372241</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
+        <v>0.1687521625843544</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02883565561480327</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>892406749.9440998</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6251714760.469332</v>
+        <v>5342365252.374905</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002417784368371306</v>
-      </c>
-      <c r="G80" t="b">
+        <v>0.08547201570238736</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03655049956995797</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>5</v>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2671182692.115232</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6396743941.101628</v>
+        <v>4944016541.732303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003210272322206569</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
+        <v>0.1354779451438137</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03248304092203253</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2472008268.912242</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5235089250.964471</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2068908814566114</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.024578830519286</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8121245339.640176</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004583820052778293</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
+      <c r="I82" t="n">
+        <v>6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2617544596.062647</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7550813294.659339</v>
+        <v>2341557234.207908</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002960933965628798</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.119432309450171</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03293571323548161</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1170778644.764693</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4746635337.636706</v>
+        <v>2563807462.933062</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004682473633681287</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>4</v>
+        <v>0.1002950476636157</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03988638546225184</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1281903653.51065</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3640903147.660037</v>
+        <v>2533141646.697052</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003329993366532339</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.156630861572337</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03781467795778626</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1266570831.694873</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7857806280.438368</v>
+        <v>2404546504.878973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002259867511375559</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.1460777778458837</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02365174801568744</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1202273336.00299</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3483048559.147272</v>
+        <v>1303088604.099652</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00102521150310589</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1376957807152744</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03399853945839904</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>651544383.7839768</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8279430166.437758</v>
+        <v>3072331382.879858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004779887073280346</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
+        <v>0.1711579945490911</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03726291652087955</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1536165728.763067</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6678433056.588304</v>
+        <v>2493344556.185111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003339341153820514</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
+        <v>0.09659561898612766</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02769502228336698</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1246672353.095787</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5636034488.113116</v>
+        <v>2052544904.587284</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003007050793198001</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.09048493067130786</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05413351868414582</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1026272531.85845</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7281217776.496017</v>
+        <v>1815770297.096884</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003973090284379316</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6</v>
+        <v>0.1911487442943734</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03841064558902409</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>907885145.0863613</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5398304919.644473</v>
+        <v>2399753762.546466</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003139904402570739</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07301734317169074</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02881963195123613</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1199876857.371244</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5670120431.773891</v>
+        <v>4280588820.997203</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001830076406705971</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>6</v>
+        <v>0.08804925523708833</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0409838924832497</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2140294392.662522</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7328348307.091096</v>
+        <v>1876824790.985479</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009621133988561054</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>6</v>
+        <v>0.1634139065590057</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02635840779151064</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>938412377.5202739</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7210142465.330896</v>
+        <v>2305464584.844891</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002831992272625091</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1212575748249386</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0464322456883981</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1152732342.384973</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8298208928.75205</v>
+        <v>2392118553.730019</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002096344165714971</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
+        <v>0.1074196374032923</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03798719590648693</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1196059221.821592</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4082381004.123411</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1359080521193659</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02361579578314625</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>6</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5496328866.742601</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.004807118465720597</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>5</v>
+      <c r="J97" t="n">
+        <v>2041190564.795553</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8114209029.895443</v>
+        <v>3372911026.824784</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00352225472765309</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>7</v>
+        <v>0.08106377922121168</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02698532586020798</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1686455523.139615</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3039222312.312018</v>
+        <v>3231959625.353889</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004087637869262127</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1354772314578233</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02149408849608019</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1615979815.240761</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4514900066.39467</v>
+        <v>3865793881.141905</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00225316413080803</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1793393432205313</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02065922674615052</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1932897000.24699</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8086973262.046386</v>
+        <v>2446160544.560575</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001285011310053672</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>6</v>
+        <v>0.187830400471308</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04825406520689035</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1223080287.884108</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1637746478.717161</v>
+        <v>2431143082.727039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1008997379086137</v>
+        <v>0.1066862782559051</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03808176623211556</v>
+        <v>0.03721875536681086</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>818873186.0500418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1805137476.570091</v>
+        <v>1926784762.807741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1546889858185988</v>
+        <v>0.1410293374904702</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03566893466508133</v>
+        <v>0.03674210930658862</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>902568747.8791764</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3430434537.528844</v>
+        <v>3271732046.742052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1634802670169283</v>
+        <v>0.1302948664382402</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03761908871451625</v>
+        <v>0.03071047752508934</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1715217242.231465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3937194171.009973</v>
+        <v>3144745710.96097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1084949330291962</v>
+        <v>0.08854300320835133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03454660507519541</v>
+        <v>0.03723693149994127</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1968597093.105799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2614305450.338974</v>
+        <v>1780699464.535052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1107857489822843</v>
+        <v>0.1259998544386371</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0341783194719216</v>
+        <v>0.05455070702045493</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1307152688.050406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2819285108.105678</v>
+        <v>2551062271.333112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0722088763875593</v>
+        <v>0.07849778549048898</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03932608487667956</v>
+        <v>0.03018541971112932</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1409642536.025063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3972335394.63309</v>
+        <v>3449634316.018746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1624615814865797</v>
+        <v>0.1709326695692822</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03070752283354035</v>
+        <v>0.02019093225960465</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1986167853.920057</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2186315971.002751</v>
+        <v>2089171163.775545</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1477231493186207</v>
+        <v>0.138398314633045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03200608161538511</v>
+        <v>0.02405774761978874</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1093157985.959325</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4544358496.660184</v>
+        <v>4710022729.517138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2013599469947689</v>
+        <v>0.2113819963608274</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04223071817557091</v>
+        <v>0.04551109377151993</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2272179312.093976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3017753879.334311</v>
+        <v>3980791108.972043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1355075827012936</v>
+        <v>0.1580362146497002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04900743288948631</v>
+        <v>0.03283807072532812</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1508876883.517767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2396417028.802431</v>
+        <v>2553324530.916816</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1831551483502367</v>
+        <v>0.1771032730523318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04848269753993986</v>
+        <v>0.04313238462413169</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1198208476.858261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3995613963.607429</v>
+        <v>5355357443.309714</v>
       </c>
       <c r="F13" t="n">
-        <v>0.080871009558713</v>
+        <v>0.08443676253030893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0243372973914145</v>
+        <v>0.01909179316899185</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1997807036.677552</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2893989734.171757</v>
+        <v>3016117939.933855</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1590085838022415</v>
+        <v>0.1272854977580624</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03892150856294278</v>
+        <v>0.03777576338189192</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1446994908.957991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1380473739.859378</v>
+        <v>1693772642.374185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09119823350085678</v>
+        <v>0.07850383435700246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04804912302124257</v>
+        <v>0.04224495668728608</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>690236928.0597602</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2488706036.332432</v>
+        <v>2162963473.788189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09751889027328725</v>
+        <v>0.07565513679862075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03996227709382501</v>
+        <v>0.03771915083106894</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1244353049.660541</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4883287007.317906</v>
+        <v>4221967073.419213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1661519844602318</v>
+        <v>0.1361916883236485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03831467073868609</v>
+        <v>0.04245793662091916</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2441643494.284924</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2636244164.174401</v>
+        <v>2499135338.591662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1684924791846079</v>
+        <v>0.1484620659707504</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02919353500127113</v>
+        <v>0.03439570457939111</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1318122138.43048</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1112632558.738967</v>
+        <v>987707855.0448587</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1656409699519801</v>
+        <v>0.1557211012635632</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02275621347686931</v>
+        <v>0.02341605931668777</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>556316335.7542124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2468857269.191658</v>
+        <v>2103568977.09486</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09756635892543224</v>
+        <v>0.1032115319357258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0283387748795932</v>
+        <v>0.02637052706001293</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1234428610.717579</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2341075143.137369</v>
+        <v>2211171778.080115</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0882153997785308</v>
+        <v>0.09366874862197587</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04349684595554981</v>
+        <v>0.0400803146118573</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1170537574.64911</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3789891790.759019</v>
+        <v>2739497868.019166</v>
       </c>
       <c r="F22" t="n">
-        <v>0.116406324336063</v>
+        <v>0.1063944847714527</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04271520904202939</v>
+        <v>0.03443454489194146</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1894945909.325107</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247032144.46512</v>
+        <v>1375330373.22083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1703484164774578</v>
+        <v>0.1356051361484033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03975438369956127</v>
+        <v>0.04733747234612844</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>623516100.5468298</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3049686821.00916</v>
+        <v>3074587452.462882</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1410578437693336</v>
+        <v>0.1256017180724936</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0278557876356476</v>
+        <v>0.0240534462863396</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1524843442.100295</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1177253171.206742</v>
+        <v>1376106266.845525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1131970389771191</v>
+        <v>0.07669000603457127</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02081491966096904</v>
+        <v>0.02245872342119981</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>588626608.5091318</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1080307084.552531</v>
+        <v>950412626.8156834</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08967956801427936</v>
+        <v>0.1224853466477199</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02531702804828875</v>
+        <v>0.02443013840883187</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>540153533.6566743</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4250825765.397229</v>
+        <v>4113982921.139973</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1434009990759218</v>
+        <v>0.1059104265827674</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01795811659361082</v>
+        <v>0.02480918472278934</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2125412880.077338</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2604639752.355858</v>
+        <v>3315204549.788723</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09299016860307975</v>
+        <v>0.09534359552698522</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04449697618800159</v>
+        <v>0.03591380302699591</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1302319852.806443</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4150489382.887518</v>
+        <v>5077070674.31941</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1457462451419112</v>
+        <v>0.1222814480097017</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03887342362940521</v>
+        <v>0.03843324690512417</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2075244697.639416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1624237940.687114</v>
+        <v>1648899341.060697</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1173266052687476</v>
+        <v>0.1217567927002755</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02945528365518088</v>
+        <v>0.02462483324131973</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>812118964.7842181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1176073633.700029</v>
+        <v>908337608.3804885</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09546674171443095</v>
+        <v>0.07565599580046589</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03901414005474476</v>
+        <v>0.03506513137871696</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>588036773.6680378</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1705316342.844443</v>
+        <v>1443613280.168277</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08324398514125515</v>
+        <v>0.1063856459408184</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03545345582442774</v>
+        <v>0.02835378780267072</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>852658281.9926679</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2601973045.727437</v>
+        <v>2504572048.42249</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447494046868411</v>
+        <v>0.1320245645327678</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04215541431373863</v>
+        <v>0.04623519809003347</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1300986552.132249</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225284681.5756</v>
+        <v>1435543033.792708</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1145111874629229</v>
+        <v>0.09330891657861488</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02301773616174194</v>
+        <v>0.02694143693718506</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>612642341.3869841</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1055488708.354994</v>
+        <v>862401971.2781858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07323904877871841</v>
+        <v>0.09888129503575917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03337145073848331</v>
+        <v>0.02770881545000307</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527744360.3170986</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3128804995.856097</v>
+        <v>2222700203.732327</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1649133687983535</v>
+        <v>0.1192101650961483</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0234669892330785</v>
+        <v>0.02022904625089552</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1564402469.143702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2578808684.72928</v>
+        <v>2550279390.470322</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0899282496994421</v>
+        <v>0.07579289910715578</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03275701428195789</v>
+        <v>0.04049385451211992</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1289404448.978397</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1850100233.650656</v>
+        <v>1606893207.939625</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1154465972564825</v>
+        <v>0.07730357079249017</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03735557374441594</v>
+        <v>0.03660287806061143</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>925050116.3387617</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1916768737.602277</v>
+        <v>1742783351.491039</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501992371701498</v>
+        <v>0.1753865826336437</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02368047762504038</v>
+        <v>0.0250474759286956</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>958384375.6959136</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1112369250.532395</v>
+        <v>1676838648.98398</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1219277160183602</v>
+        <v>0.1506020203831711</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03912450276301493</v>
+        <v>0.04142692135847344</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>556184688.2168413</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2614653665.651482</v>
+        <v>2307444972.651643</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1016527525589438</v>
+        <v>0.1623717408290775</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04174619994746049</v>
+        <v>0.04271182938641706</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1307326846.661893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3903880059.50967</v>
+        <v>4240904377.793838</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1060891437586291</v>
+        <v>0.09213775734970441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03657831492559124</v>
+        <v>0.04594386177559603</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1951940052.158551</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3016557966.320658</v>
+        <v>2492291768.600152</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1947344958568905</v>
+        <v>0.1332769343771767</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01702071075939517</v>
+        <v>0.01859049020765628</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1508278979.607048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2096780671.11355</v>
+        <v>1703103607.172877</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08711584797990159</v>
+        <v>0.06502575168938644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02789119274971058</v>
+        <v>0.03089951928910612</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1048390460.875586</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1770096443.011345</v>
+        <v>2171308357.631706</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1195416667376898</v>
+        <v>0.1498830025007108</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04797662256076209</v>
+        <v>0.05621706107576493</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>885048188.9299939</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5008885154.459045</v>
+        <v>5040570821.606749</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1566944125140151</v>
+        <v>0.1262220202221088</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05331246182571591</v>
+        <v>0.04667618716532483</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2504442604.273189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3934776347.815188</v>
+        <v>3543102053.369093</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1583094714989117</v>
+        <v>0.1669776603096336</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04726955928566817</v>
+        <v>0.03622744262892898</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1967388169.050511</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3264370327.36307</v>
+        <v>3578128730.002321</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09064914218745679</v>
+        <v>0.08932681147767568</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03291490613260189</v>
+        <v>0.03319080557036194</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1632185240.522131</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1917944003.633249</v>
+        <v>1920569464.485695</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1618422958744269</v>
+        <v>0.1552023949373163</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04258498153445983</v>
+        <v>0.03052174102661536</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>958971968.4728196</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3092998116.148741</v>
+        <v>3157158644.950955</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1654848455692921</v>
+        <v>0.1427962577012969</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04394714822996582</v>
+        <v>0.04394740493682246</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1546499111.035249</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1547709430.648916</v>
+        <v>1485007842.850642</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1874600521227958</v>
+        <v>0.1964511916474345</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04067100125831698</v>
+        <v>0.04328934821381308</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>773854710.3119956</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3270183019.120894</v>
+        <v>4680183360.203674</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1044932738569986</v>
+        <v>0.1263111731264225</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04896972476603938</v>
+        <v>0.04633829323428193</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1635091608.691364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2750579628.673867</v>
+        <v>2925653975.031245</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1613960389881032</v>
+        <v>0.1708300299940075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02446359952497481</v>
+        <v>0.03089450010709469</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1375289863.692509</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4745340717.409653</v>
+        <v>4869894833.733921</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1156560805160996</v>
+        <v>0.1299314180039249</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03996424259869751</v>
+        <v>0.03894330570260502</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2372670480.929299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3059830573.95731</v>
+        <v>3875988035.896094</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2090070107137101</v>
+        <v>0.1729713746627015</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02081130598716005</v>
+        <v>0.0229640839332692</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1529915220.060929</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1478882883.609765</v>
+        <v>1881030980.498061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1112893136848406</v>
+        <v>0.1341065634220674</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05115630868141083</v>
+        <v>0.04444667504457053</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>739441486.8650393</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4383258909.628427</v>
+        <v>3772318159.699934</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1325274521649066</v>
+        <v>0.1801923051290658</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01792012552539502</v>
+        <v>0.02282040841889349</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2191629574.968062</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1393673538.87588</v>
+        <v>1180038440.397627</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1552922738790194</v>
+        <v>0.1984557172862049</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02452170748433051</v>
+        <v>0.02716917246796956</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>696836809.9933145</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3709478574.18199</v>
+        <v>4821865435.806222</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1008005262387423</v>
+        <v>0.08471971538485625</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03045786549211223</v>
+        <v>0.0378155476342974</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1854739276.767826</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3531922157.651825</v>
+        <v>3790074105.806943</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1331609010214336</v>
+        <v>0.1967280175546306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03337304872762126</v>
+        <v>0.02231500534887325</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1765961204.521608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2360727117.763775</v>
+        <v>2533731332.030118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1452104311582533</v>
+        <v>0.1768164922463833</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03306528550048279</v>
+        <v>0.02429379600365273</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1180363599.40031</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1485072233.627345</v>
+        <v>1709002489.94178</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1547349203812379</v>
+        <v>0.1418211478274271</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03327345222911009</v>
+        <v>0.03671415630865181</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>742536097.3642688</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4013109449.180821</v>
+        <v>4082146229.392439</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09140174461549253</v>
+        <v>0.0688931384994248</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04656473356813938</v>
+        <v>0.03771137207543336</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2006554786.030377</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5518295183.417832</v>
+        <v>4944836329.339249</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1577130669527922</v>
+        <v>0.1547323681736294</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03468757830786635</v>
+        <v>0.02942446310619135</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2759147734.083698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3994453861.900101</v>
+        <v>4239367920.074325</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1071640113476157</v>
+        <v>0.1308935287779558</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02622282991654677</v>
+        <v>0.02366738252853766</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1997226949.648134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5458878383.140076</v>
+        <v>3760833742.050441</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1025638407581232</v>
+        <v>0.1332596632417467</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03338109063148271</v>
+        <v>0.03952211976469171</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2729439242.969968</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3117124513.096968</v>
+        <v>3253439663.890185</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07347341672760029</v>
+        <v>0.07972013356655572</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04877315450648267</v>
+        <v>0.04810962349816592</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1558562264.628827</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5632098560.737329</v>
+        <v>4216878860.294282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1389216335008931</v>
+        <v>0.1379365888414981</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04917035444517216</v>
+        <v>0.04621986224225774</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2816049374.646815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2245047823.313041</v>
+        <v>1593645158.985478</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1474900205409941</v>
+        <v>0.1305043667899018</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05884270970462961</v>
+        <v>0.05551935533486208</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1122523948.030333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3278109519.156538</v>
+        <v>3219171399.724563</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08617772433007778</v>
+        <v>0.08625743545631648</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03885695665446186</v>
+        <v>0.04563414803644208</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1639054754.341531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3730470218.442577</v>
+        <v>3906904584.623384</v>
       </c>
       <c r="F71" t="n">
-        <v>0.168545855472753</v>
+        <v>0.1630183920066914</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02679297058806832</v>
+        <v>0.03275753248805353</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1865235119.942499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1441422562.506818</v>
+        <v>2080347995.639616</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08015642618414789</v>
+        <v>0.06848813438804062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04076392891289247</v>
+        <v>0.04106310591856222</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>720711317.3951112</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3491276466.390203</v>
+        <v>2653442736.271089</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0745684726084206</v>
+        <v>0.08981405093806027</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03812059542525337</v>
+        <v>0.03345820240808198</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1745638183.937782</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2964854131.74602</v>
+        <v>3300391064.197329</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1266761172201788</v>
+        <v>0.1375591600139203</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02975898573379033</v>
+        <v>0.03161026625389537</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1482427133.979052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1743948236.353013</v>
+        <v>1743527821.719553</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1388670309962925</v>
+        <v>0.1547536965409217</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03093659415945675</v>
+        <v>0.0337357961432129</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>871974106.1140302</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4973633925.57868</v>
+        <v>5054438190.343807</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1216248735367623</v>
+        <v>0.07739950952121866</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03220676547201319</v>
+        <v>0.0231933953311338</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2486816988.045074</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2272296601.548144</v>
+        <v>1766965257.529121</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1824188313736864</v>
+        <v>0.1413993654309737</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02905806230566522</v>
+        <v>0.0274581797187251</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1136148402.171417</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3220098126.386354</v>
+        <v>4627517498.838808</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08946913799775494</v>
+        <v>0.1354189750088894</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04004830491378211</v>
+        <v>0.03575069433150967</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1610049084.435903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1784813332.557736</v>
+        <v>1285987690.385806</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1687521625843544</v>
+        <v>0.1476381063942201</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02883565561480327</v>
+        <v>0.0330444612750424</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>892406749.9440998</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5342365252.374905</v>
+        <v>4815517495.960188</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08547201570238736</v>
+        <v>0.09576604758116661</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03655049956995797</v>
+        <v>0.02574578015636446</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2671182692.115232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4944016541.732303</v>
+        <v>3554536390.128484</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1354779451438137</v>
+        <v>0.1351576583309732</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03248304092203253</v>
+        <v>0.02824357901754106</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2472008268.912242</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5235089250.964471</v>
+        <v>4422023046.98977</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2068908814566114</v>
+        <v>0.1820982320027647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.024578830519286</v>
+        <v>0.02712797942173723</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2617544596.062647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2341557234.207908</v>
+        <v>2332494082.723324</v>
       </c>
       <c r="F83" t="n">
-        <v>0.119432309450171</v>
+        <v>0.1185493123257381</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03293571323548161</v>
+        <v>0.03946145954311826</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1170778644.764693</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2563807462.933062</v>
+        <v>1585363547.802656</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1002950476636157</v>
+        <v>0.1093831324450403</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03988638546225184</v>
+        <v>0.04954971490241473</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1281903653.51065</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2533141646.697052</v>
+        <v>2336325375.040655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.156630861572337</v>
+        <v>0.122536622804003</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03781467795778626</v>
+        <v>0.0469900992706611</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1266570831.694873</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2404546504.878973</v>
+        <v>2086268460.253199</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460777778458837</v>
+        <v>0.1627449666219218</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02365174801568744</v>
+        <v>0.01779850350287584</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1202273336.00299</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1303088604.099652</v>
+        <v>1058070184.355802</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1376957807152744</v>
+        <v>0.1264226915708714</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03399853945839904</v>
+        <v>0.03105671250352268</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>651544383.7839768</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3072331382.879858</v>
+        <v>2792183097.886592</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1711579945490911</v>
+        <v>0.1351919025222287</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03726291652087955</v>
+        <v>0.03639398559143684</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1536165728.763067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2493344556.185111</v>
+        <v>3492675489.734874</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09659561898612766</v>
+        <v>0.1141211201281807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02769502228336698</v>
+        <v>0.03239695479761397</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1246672353.095787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2052544904.587284</v>
+        <v>2075923190.849749</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09048493067130786</v>
+        <v>0.132672810707634</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05413351868414582</v>
+        <v>0.04017486001945816</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1026272531.85845</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1815770297.096884</v>
+        <v>1633167990.716055</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1911487442943734</v>
+        <v>0.1891363775112668</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03841064558902409</v>
+        <v>0.05723350557444914</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>907885145.0863613</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2399753762.546466</v>
+        <v>1818636486.452201</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07301734317169074</v>
+        <v>0.0769332385157917</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02881963195123613</v>
+        <v>0.0402060535228019</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1199876857.371244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4280588820.997203</v>
+        <v>3840871646.453409</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08804925523708833</v>
+        <v>0.1147882577273656</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0409838924832497</v>
+        <v>0.04839437181383106</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2140294392.662522</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1876824790.985479</v>
+        <v>2518162597.878945</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1634139065590057</v>
+        <v>0.1167479049972513</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02635840779151064</v>
+        <v>0.03781357547543935</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>938412377.5202739</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2305464584.844891</v>
+        <v>2823454671.375714</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1212575748249386</v>
+        <v>0.09888256510265847</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0464322456883981</v>
+        <v>0.04955193709175774</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1152732342.384973</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2392118553.730019</v>
+        <v>1565096481.88564</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1074196374032923</v>
+        <v>0.09980617183366523</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03798719590648693</v>
+        <v>0.04063573366266424</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1196059221.821592</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4082381004.123411</v>
+        <v>4479108015.827122</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1359080521193659</v>
+        <v>0.156364098576516</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02361579578314625</v>
+        <v>0.02537248800731546</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2041190564.795553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3372911026.824784</v>
+        <v>3000438865.633571</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08106377922121168</v>
+        <v>0.1208864094558318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02698532586020798</v>
+        <v>0.03222449188412303</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1686455523.139615</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3231959625.353889</v>
+        <v>3417295925.954024</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1354772314578233</v>
+        <v>0.145812358387542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02149408849608019</v>
+        <v>0.02406756595594633</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1615979815.240761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3865793881.141905</v>
+        <v>3436134843.881928</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793393432205313</v>
+        <v>0.1305933492272985</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02065922674615052</v>
+        <v>0.02046799275197454</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1932897000.24699</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2446160544.560575</v>
+        <v>3566679763.002451</v>
       </c>
       <c r="F101" t="n">
-        <v>0.187830400471308</v>
+        <v>0.1371234383468627</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04825406520689035</v>
+        <v>0.05161468127449981</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1223080287.884108</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2431143082.727039</v>
+        <v>1878355867.969411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1066862782559051</v>
+        <v>0.1037060638032492</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03721875536681086</v>
+        <v>0.03448398001165701</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1926784762.807741</v>
+        <v>2112022896.587572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1410293374904702</v>
+        <v>0.1762547821398543</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03674210930658862</v>
+        <v>0.0444898805373432</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3271732046.742052</v>
+        <v>4171439315.533591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1302948664382402</v>
+        <v>0.1483864313016364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03071047752508934</v>
+        <v>0.02393649803989078</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3144745710.96097</v>
+        <v>2573657229.162649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08854300320835133</v>
+        <v>0.09351244774939171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03723693149994127</v>
+        <v>0.03513915896719877</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1780699464.535052</v>
+        <v>2409537906.018072</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1259998544386371</v>
+        <v>0.1214336356770632</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05455070702045493</v>
+        <v>0.05580031843056547</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2551062271.333112</v>
+        <v>2605147416.430153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07849778549048898</v>
+        <v>0.06748439153836151</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03018541971112932</v>
+        <v>0.04283753622401682</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3449634316.018746</v>
+        <v>2843754338.678539</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1709326695692822</v>
+        <v>0.1724820862762985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02019093225960465</v>
+        <v>0.02803466565700227</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2089171163.775545</v>
+        <v>1914323977.769294</v>
       </c>
       <c r="F9" t="n">
-        <v>0.138398314633045</v>
+        <v>0.1809430580796889</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02405774761978874</v>
+        <v>0.024660425801968</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4710022729.517138</v>
+        <v>5639444123.528074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2113819963608274</v>
+        <v>0.1414519271900507</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04551109377151993</v>
+        <v>0.05179129687114405</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3980791108.972043</v>
+        <v>2702337659.639737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1580362146497002</v>
+        <v>0.1499378851149136</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03283807072532812</v>
+        <v>0.04921763457116887</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2553324530.916816</v>
+        <v>2059159301.732111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1771032730523318</v>
+        <v>0.1655637200194106</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04313238462413169</v>
+        <v>0.0410894958020926</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5355357443.309714</v>
+        <v>3930816367.158727</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08443676253030893</v>
+        <v>0.07207384338466809</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01909179316899185</v>
+        <v>0.0275350026799606</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3016117939.933855</v>
+        <v>2446299663.447096</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1272854977580624</v>
+        <v>0.113937360437742</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03777576338189192</v>
+        <v>0.0419173861735471</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1693772642.374185</v>
+        <v>1119380131.342268</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07850383435700246</v>
+        <v>0.07813381939773013</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04224495668728608</v>
+        <v>0.03240575580146236</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2162963473.788189</v>
+        <v>2361837666.862811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07565513679862075</v>
+        <v>0.07509656678672705</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03771915083106894</v>
+        <v>0.04085555040729559</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4221967073.419213</v>
+        <v>4314903363.549379</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1361916883236485</v>
+        <v>0.1427640814395399</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04245793662091916</v>
+        <v>0.05145568506605078</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2499135338.591662</v>
+        <v>2430906117.021656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1484620659707504</v>
+        <v>0.1195837389678778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03439570457939111</v>
+        <v>0.02331969267201983</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>987707855.0448587</v>
+        <v>1196626639.439847</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1557211012635632</v>
+        <v>0.162636504682261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02341605931668777</v>
+        <v>0.01850171167304243</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2103568977.09486</v>
+        <v>1790752069.595367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1032115319357258</v>
+        <v>0.09911455001218768</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02637052706001293</v>
+        <v>0.02088802276211438</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2211171778.080115</v>
+        <v>1836440580.111776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09366874862197587</v>
+        <v>0.09002265027467304</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0400803146118573</v>
+        <v>0.03355013566859798</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2739497868.019166</v>
+        <v>2783336075.846407</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1063944847714527</v>
+        <v>0.1340305017778256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03443454489194146</v>
+        <v>0.04794986275532028</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1375330373.22083</v>
+        <v>1133309846.060517</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1356051361484033</v>
+        <v>0.1714769939638572</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04733747234612844</v>
+        <v>0.03482617481132029</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3074587452.462882</v>
+        <v>2947912456.960244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1256017180724936</v>
+        <v>0.132549845894148</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0240534462863396</v>
+        <v>0.0284022725425144</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1376106266.845525</v>
+        <v>1183063348.180594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07669000603457127</v>
+        <v>0.09834860576698272</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02245872342119981</v>
+        <v>0.02243932818005014</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>950412626.8156834</v>
+        <v>1017914216.002614</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1224853466477199</v>
+        <v>0.1187475435128296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02443013840883187</v>
+        <v>0.02744350418605833</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4113982921.139973</v>
+        <v>3509049827.902217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1059104265827674</v>
+        <v>0.1459729363496268</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02480918472278934</v>
+        <v>0.02678205290810695</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3315204549.788723</v>
+        <v>3028232959.535865</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09534359552698522</v>
+        <v>0.1118734378416466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03591380302699591</v>
+        <v>0.03210702603911688</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5077070674.31941</v>
+        <v>3940725650.828697</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1222814480097017</v>
+        <v>0.1175190312417318</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03843324690512417</v>
+        <v>0.03590809013146105</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1648899341.060697</v>
+        <v>1504531679.579307</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1217567927002755</v>
+        <v>0.1055235396619318</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02462483324131973</v>
+        <v>0.03139877091806245</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908337608.3804885</v>
+        <v>1476284091.927891</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07565599580046589</v>
+        <v>0.07484353624845635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03506513137871696</v>
+        <v>0.03621641821197837</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1443613280.168277</v>
+        <v>1368912855.152804</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1063856459408184</v>
+        <v>0.07754084336852955</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02835378780267072</v>
+        <v>0.02511699367944814</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2504572048.42249</v>
+        <v>2677434498.1665</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1320245645327678</v>
+        <v>0.1513522734533676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04623519809003347</v>
+        <v>0.04185582057440489</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1435543033.792708</v>
+        <v>952006718.9794973</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09330891657861488</v>
+        <v>0.1046901825504521</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02694143693718506</v>
+        <v>0.02745289861222195</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>862401971.2781858</v>
+        <v>846231654.4158757</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09888129503575917</v>
+        <v>0.07608456118382483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02770881545000307</v>
+        <v>0.03207141306314281</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2222700203.732327</v>
+        <v>2606194125.6373</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1192101650961483</v>
+        <v>0.1744349469903052</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02022904625089552</v>
+        <v>0.01747414765396518</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2550279390.470322</v>
+        <v>2018363847.106417</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07579289910715578</v>
+        <v>0.103787429405108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04049385451211992</v>
+        <v>0.02848521207582271</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1606893207.939625</v>
+        <v>2087766899.900362</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07730357079249017</v>
+        <v>0.07722468258978608</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03660287806061143</v>
+        <v>0.03124644744491855</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1742783351.491039</v>
+        <v>1365569545.894377</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1753865826336437</v>
+        <v>0.1877628657186927</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0250474759286956</v>
+        <v>0.02813711252397351</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1676838648.98398</v>
+        <v>1110865974.089007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1506020203831711</v>
+        <v>0.1475628017380251</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04142692135847344</v>
+        <v>0.043800797649745</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2307444972.651643</v>
+        <v>2171580782.621727</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623717408290775</v>
+        <v>0.1524365519044646</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04271182938641706</v>
+        <v>0.03586343883711637</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4240904377.793838</v>
+        <v>2833282488.847389</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09213775734970441</v>
+        <v>0.1107661610146125</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04594386177559603</v>
+        <v>0.03655557246858412</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2492291768.600152</v>
+        <v>1873987829.019472</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1332769343771767</v>
+        <v>0.1950640024165532</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01859049020765628</v>
+        <v>0.02193156547743935</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1703103607.172877</v>
+        <v>2344552089.907966</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06502575168938644</v>
+        <v>0.07809116432409763</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03089951928910612</v>
+        <v>0.02592364967199535</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2171308357.631706</v>
+        <v>2523691441.134209</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1498830025007108</v>
+        <v>0.1882342473546306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05621706107576493</v>
+        <v>0.04342628925738581</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5040570821.606749</v>
+        <v>4650981410.524368</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1262220202221088</v>
+        <v>0.1583646673270989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04667618716532483</v>
+        <v>0.04563190812128546</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3543102053.369093</v>
+        <v>5026371530.886692</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1669776603096336</v>
+        <v>0.1625504538226393</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03622744262892898</v>
+        <v>0.03984975253037441</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3578128730.002321</v>
+        <v>4251034604.378591</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08932681147767568</v>
+        <v>0.08895652661793599</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03319080557036194</v>
+        <v>0.03787427750105796</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1920569464.485695</v>
+        <v>1275483509.422915</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1552023949373163</v>
+        <v>0.1530446740831317</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03052174102661536</v>
+        <v>0.02978065139216664</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3157158644.950955</v>
+        <v>3226370510.288836</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1427962577012969</v>
+        <v>0.122572955763035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04394740493682246</v>
+        <v>0.05357096558676069</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1485007842.850642</v>
+        <v>1322130391.694396</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1964511916474345</v>
+        <v>0.1809589007543094</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04328934821381308</v>
+        <v>0.05198621914821629</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4680183360.203674</v>
+        <v>4186063501.490548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1263111731264225</v>
+        <v>0.08961516641050374</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04633829323428193</v>
+        <v>0.04965215728689322</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2925653975.031245</v>
+        <v>2405489794.269815</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1708300299940075</v>
+        <v>0.2010105044565557</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03089450010709469</v>
+        <v>0.03044636635464114</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4869894833.733921</v>
+        <v>3312065582.940476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1299314180039249</v>
+        <v>0.1396736111536552</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03894330570260502</v>
+        <v>0.05042406503218094</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3875988035.896094</v>
+        <v>3888855637.824286</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1729713746627015</v>
+        <v>0.1762116870699047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0229640839332692</v>
+        <v>0.02706379487267677</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1881030980.498061</v>
+        <v>1302700097.406173</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1341065634220674</v>
+        <v>0.1489379698811108</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04444667504457053</v>
+        <v>0.04053630767997084</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3772318159.699934</v>
+        <v>2961267419.400451</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1801923051290658</v>
+        <v>0.1321467009739384</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02282040841889349</v>
+        <v>0.0211075975927113</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1180038440.397627</v>
+        <v>1411810694.684106</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1984557172862049</v>
+        <v>0.1358890411847334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02716917246796956</v>
+        <v>0.03645115989763388</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4821865435.806222</v>
+        <v>4278924511.421884</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08471971538485625</v>
+        <v>0.1058180048137747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0378155476342974</v>
+        <v>0.04975528851525283</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3790074105.806943</v>
+        <v>2562478311.707975</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1967280175546306</v>
+        <v>0.1249479421856183</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02231500534887325</v>
+        <v>0.03058089714787634</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2533731332.030118</v>
+        <v>3258734125.209454</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1768164922463833</v>
+        <v>0.1273705886574827</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02429379600365273</v>
+        <v>0.0264764175980714</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709002489.94178</v>
+        <v>1338479535.648443</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1418211478274271</v>
+        <v>0.1800236924266596</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03671415630865181</v>
+        <v>0.0481340053543977</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4082146229.392439</v>
+        <v>5390955000.220633</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0688931384994248</v>
+        <v>0.08427087256123628</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03771137207543336</v>
+        <v>0.03310062233580656</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4944836329.339249</v>
+        <v>4469396147.524222</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547323681736294</v>
+        <v>0.1649029393622791</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02942446310619135</v>
+        <v>0.03119056616979429</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4239367920.074325</v>
+        <v>4565915787.725786</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1308935287779558</v>
+        <v>0.1688531047695632</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02366738252853766</v>
+        <v>0.02533091310420451</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3760833742.050441</v>
+        <v>5444077120.238806</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1332596632417467</v>
+        <v>0.1048684969273481</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03952211976469171</v>
+        <v>0.03666245601081407</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3253439663.890185</v>
+        <v>2558942851.996563</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07972013356655572</v>
+        <v>0.09537352860912728</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04810962349816592</v>
+        <v>0.03463978397853771</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4216878860.294282</v>
+        <v>4250986463.285092</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1379365888414981</v>
+        <v>0.1501098074200131</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04621986224225774</v>
+        <v>0.03529734934526805</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1593645158.985478</v>
+        <v>1968892335.914345</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1305043667899018</v>
+        <v>0.1623746923672632</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05551935533486208</v>
+        <v>0.05170980248072525</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3219171399.724563</v>
+        <v>3260072222.192797</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08625743545631648</v>
+        <v>0.06863888810979309</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04563414803644208</v>
+        <v>0.04045561337416115</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3906904584.623384</v>
+        <v>4972550817.087655</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1630183920066914</v>
+        <v>0.1767041348206366</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03275753248805353</v>
+        <v>0.02920795620476182</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2080347995.639616</v>
+        <v>1573190184.087129</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06848813438804062</v>
+        <v>0.1062964540167984</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04106310591856222</v>
+        <v>0.03531540948131288</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2653442736.271089</v>
+        <v>3565327207.62214</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08981405093806027</v>
+        <v>0.09443614992029566</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03345820240808198</v>
+        <v>0.03660844841365594</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3300391064.197329</v>
+        <v>3502484099.401396</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1375591600139203</v>
+        <v>0.1810111151928335</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03161026625389537</v>
+        <v>0.02435517888420692</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1743527821.719553</v>
+        <v>2324692054.570549</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1547536965409217</v>
+        <v>0.1405407406586635</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0337357961432129</v>
+        <v>0.02549062861139927</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5054438190.343807</v>
+        <v>3709066302.37926</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07739950952121866</v>
+        <v>0.1048872228763099</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0231933953311338</v>
+        <v>0.02438359412492719</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1766965257.529121</v>
+        <v>1443219669.356019</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1413993654309737</v>
+        <v>0.1514772641109306</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0274581797187251</v>
+        <v>0.03041655983876714</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4627517498.838808</v>
+        <v>3535094424.940445</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1354189750088894</v>
+        <v>0.09249467730648356</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03575069433150967</v>
+        <v>0.05439407621995324</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1285987690.385806</v>
+        <v>1550895840.443564</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1476381063942201</v>
+        <v>0.1489876887603255</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0330444612750424</v>
+        <v>0.03035452272861757</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4815517495.960188</v>
+        <v>5049593472.261356</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09576604758116661</v>
+        <v>0.1066632635782569</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02574578015636446</v>
+        <v>0.03598657048865236</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3554536390.128484</v>
+        <v>3150597467.834527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1351576583309732</v>
+        <v>0.08706972250952173</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02824357901754106</v>
+        <v>0.02081099865978422</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4422023046.98977</v>
+        <v>5440461061.150554</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1820982320027647</v>
+        <v>0.1921088096896049</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02712797942173723</v>
+        <v>0.02222502924709357</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2332494082.723324</v>
+        <v>2124910382.963484</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1185493123257381</v>
+        <v>0.1090794322465661</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03946145954311826</v>
+        <v>0.04080713438728138</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1585363547.802656</v>
+        <v>2230228392.217103</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1093831324450403</v>
+        <v>0.09819129869921396</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04954971490241473</v>
+        <v>0.04151825216075128</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2336325375.040655</v>
+        <v>3399810852.831941</v>
       </c>
       <c r="F85" t="n">
-        <v>0.122536622804003</v>
+        <v>0.1679794738542413</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0469900992706611</v>
+        <v>0.04410240352517253</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2086268460.253199</v>
+        <v>2695328403.728778</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1627449666219218</v>
+        <v>0.1307208826209112</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01779850350287584</v>
+        <v>0.02290818505997433</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1058070184.355802</v>
+        <v>1205815357.073629</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1264226915708714</v>
+        <v>0.1488390445608334</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03105671250352268</v>
+        <v>0.03616190674754906</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2792183097.886592</v>
+        <v>3214756970.440577</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1351919025222287</v>
+        <v>0.129028967174913</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03639398559143684</v>
+        <v>0.02962329125862631</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3492675489.734874</v>
+        <v>3177483417.301178</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1141211201281807</v>
+        <v>0.1479499256262439</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03239695479761397</v>
+        <v>0.02813784412297852</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2075923190.849749</v>
+        <v>1504601897.902012</v>
       </c>
       <c r="F90" t="n">
-        <v>0.132672810707634</v>
+        <v>0.09421672697160965</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04017486001945816</v>
+        <v>0.03557506941472023</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1633167990.716055</v>
+        <v>1877365241.315587</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1891363775112668</v>
+        <v>0.1235909808055522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05723350557444914</v>
+        <v>0.04981947420759068</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1818636486.452201</v>
+        <v>2883231407.723198</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0769332385157917</v>
+        <v>0.07908228770668169</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0402060535228019</v>
+        <v>0.03290857738015802</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3840871646.453409</v>
+        <v>3734085511.03381</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1147882577273656</v>
+        <v>0.1118612343508917</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04839437181383106</v>
+        <v>0.03983647478379013</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2518162597.878945</v>
+        <v>1954149287.170584</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1167479049972513</v>
+        <v>0.1141958504910787</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03781357547543935</v>
+        <v>0.04088676166436388</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2823454671.375714</v>
+        <v>3033424345.82455</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09888256510265847</v>
+        <v>0.08923013164323346</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04955193709175774</v>
+        <v>0.04085517634113996</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1565096481.88564</v>
+        <v>1462870047.881231</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09980617183366523</v>
+        <v>0.1309162190792611</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04063573366266424</v>
+        <v>0.03582490769479953</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4479108015.827122</v>
+        <v>5197974693.485901</v>
       </c>
       <c r="F97" t="n">
-        <v>0.156364098576516</v>
+        <v>0.1387386175966927</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02537248800731546</v>
+        <v>0.02623897462620883</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3000438865.633571</v>
+        <v>3311336765.414212</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1208864094558318</v>
+        <v>0.07817175035216327</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03222449188412303</v>
+        <v>0.02940198073374072</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3417295925.954024</v>
+        <v>3011730771.354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145812358387542</v>
+        <v>0.1324709905111859</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02406756595594633</v>
+        <v>0.03136373131856721</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3436134843.881928</v>
+        <v>3469258949.20111</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1305933492272985</v>
+        <v>0.1483859097063312</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02046799275197454</v>
+        <v>0.01740832370568612</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3566679763.002451</v>
+        <v>2481523454.886808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1371234383468627</v>
+        <v>0.2017703394124176</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05161468127449981</v>
+        <v>0.0538612556243609</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_18.xlsx
+++ b/output/fit_clients/fit_round_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1878355867.969411</v>
+        <v>2510839219.643008</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1037060638032492</v>
+        <v>0.08568433687811464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03448398001165701</v>
+        <v>0.03892732849856924</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2112022896.587572</v>
+        <v>2624076940.590688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1762547821398543</v>
+        <v>0.1345343863757906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0444898805373432</v>
+        <v>0.03747423419104232</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4171439315.533591</v>
+        <v>4866854793.102488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1483864313016364</v>
+        <v>0.1449358739533168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02393649803989078</v>
+        <v>0.03009419172161495</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.9425226760059</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2573657229.162649</v>
+        <v>3864087814.225811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09351244774939171</v>
+        <v>0.0892884797121135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03513915896719877</v>
+        <v>0.04038201250845046</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2409537906.018072</v>
+        <v>2656595092.694148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1214336356770632</v>
+        <v>0.1259160264031132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05580031843056547</v>
+        <v>0.04444754850987344</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2605147416.430153</v>
+        <v>3034616979.498659</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06748439153836151</v>
+        <v>0.06178035334944548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04283753622401682</v>
+        <v>0.04756462431582694</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2843754338.678539</v>
+        <v>3448273858.876653</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1724820862762985</v>
+        <v>0.1802232518542566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02803466565700227</v>
+        <v>0.02883470261472994</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>168.4345996003917</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1914323977.769294</v>
+        <v>1491990912.106997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1809430580796889</v>
+        <v>0.1529213023574794</v>
       </c>
       <c r="G9" t="n">
-        <v>0.024660425801968</v>
+        <v>0.02971149154699557</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5639444123.528074</v>
+        <v>5281247568.275431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1414519271900507</v>
+        <v>0.1852125432213522</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05179129687114405</v>
+        <v>0.04398302977900312</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0043137362169</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2702337659.639737</v>
+        <v>2645188079.360373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1499378851149136</v>
+        <v>0.1194449802929274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04921763457116887</v>
+        <v>0.0468182569190419</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>113.0615992004365</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2059159301.732111</v>
+        <v>3006481258.114803</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1655637200194106</v>
+        <v>0.1738987776253705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0410894958020926</v>
+        <v>0.04693984787661202</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3930816367.158727</v>
+        <v>3230775713.297214</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07207384338466809</v>
+        <v>0.0679313142617323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0275350026799606</v>
+        <v>0.03093640483438819</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2446299663.447096</v>
+        <v>2712308618.585491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.113937360437742</v>
+        <v>0.1228545578611616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0419173861735471</v>
+        <v>0.03674561781302222</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>107.9164657666091</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1119380131.342268</v>
+        <v>1471911531.995981</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07813381939773013</v>
+        <v>0.07187443073656423</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03240575580146236</v>
+        <v>0.03942965448102208</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2361837666.862811</v>
+        <v>2560620881.392477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07509656678672705</v>
+        <v>0.1150268701746155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04085555040729559</v>
+        <v>0.04940515658752245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4314903363.549379</v>
+        <v>3798880806.309393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1427640814395399</v>
+        <v>0.1087221569660502</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05145568506605078</v>
+        <v>0.04325939142077458</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2430906117.021656</v>
+        <v>2728699681.282866</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1195837389678778</v>
+        <v>0.1602285343111502</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02331969267201983</v>
+        <v>0.02799281474026655</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1196626639.439847</v>
+        <v>924554879.3039514</v>
       </c>
       <c r="F19" t="n">
-        <v>0.162636504682261</v>
+        <v>0.1698543768292552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01850171167304243</v>
+        <v>0.02112776296317946</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1790752069.595367</v>
+        <v>2624735655.152491</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09911455001218768</v>
+        <v>0.1385025178662214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02088802276211438</v>
+        <v>0.02208040430726777</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1836440580.111776</v>
+        <v>2053685265.347549</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09002265027467304</v>
+        <v>0.06323911176627857</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03355013566859798</v>
+        <v>0.04436220928892193</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2783336075.846407</v>
+        <v>3002274552.385332</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1340305017778256</v>
+        <v>0.09637560597167061</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04794986275532028</v>
+        <v>0.03566618278887519</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1133309846.060517</v>
+        <v>1247811532.685479</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1714769939638572</v>
+        <v>0.1225778387863906</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03482617481132029</v>
+        <v>0.03844331797020809</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2947912456.960244</v>
+        <v>4151869869.555301</v>
       </c>
       <c r="F24" t="n">
-        <v>0.132549845894148</v>
+        <v>0.1375725443569274</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0284022725425144</v>
+        <v>0.0226496770135059</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="n">
+        <v>197.9556984175138</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1183063348.180594</v>
+        <v>1037976412.365195</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09834860576698272</v>
+        <v>0.09176155330353225</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02243932818005014</v>
+        <v>0.01861168096967689</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1017914216.002614</v>
+        <v>1129553414.222106</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1187475435128296</v>
+        <v>0.08169451656220474</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02744350418605833</v>
+        <v>0.03694862978760875</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3509049827.902217</v>
+        <v>4409691445.32431</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1459729363496268</v>
+        <v>0.1161078424864358</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02678205290810695</v>
+        <v>0.02321598225121809</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.519313299296</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3028232959.535865</v>
+        <v>2472735918.38546</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1118734378416466</v>
+        <v>0.1324523867545129</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03210702603911688</v>
+        <v>0.04924224689618633</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3940725650.828697</v>
+        <v>4311203293.548697</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1175190312417318</v>
+        <v>0.1209185070459177</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03590809013146105</v>
+        <v>0.03293103899406994</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9424950824758</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1504531679.579307</v>
+        <v>2300813281.958348</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1055235396619318</v>
+        <v>0.1190954718850114</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03139877091806245</v>
+        <v>0.03025926071307731</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1476284091.927891</v>
+        <v>1217500640.201767</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07484353624845635</v>
+        <v>0.09161297454179058</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03621641821197837</v>
+        <v>0.04303538909856661</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1368912855.152804</v>
+        <v>1446302386.402955</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07754084336852955</v>
+        <v>0.1176907629074733</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02511699367944814</v>
+        <v>0.0275027133749726</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2677434498.1665</v>
+        <v>1918270315.473531</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1513522734533676</v>
+        <v>0.1372030327242091</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04185582057440489</v>
+        <v>0.03801270505169313</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>952006718.9794973</v>
+        <v>962819448.8628834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1046901825504521</v>
+        <v>0.09181215243456073</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02745289861222195</v>
+        <v>0.02593730298383995</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>846231654.4158757</v>
+        <v>1261392603.199467</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07608456118382483</v>
+        <v>0.1007782299584328</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03207141306314281</v>
+        <v>0.04150357920305721</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2606194125.6373</v>
+        <v>3044233166.025928</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1744349469903052</v>
+        <v>0.1638100016710896</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01747414765396518</v>
+        <v>0.01755729311978646</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2018363847.106417</v>
+        <v>2588934376.22042</v>
       </c>
       <c r="F37" t="n">
-        <v>0.103787429405108</v>
+        <v>0.1087633951636495</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02848521207582271</v>
+        <v>0.03161426789363741</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2087766899.900362</v>
+        <v>1420364914.47631</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07722468258978608</v>
+        <v>0.1140716203436568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03124644744491855</v>
+        <v>0.02495822330397762</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1365569545.894377</v>
+        <v>1907318774.232522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1877628657186927</v>
+        <v>0.1377320344578521</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02813711252397351</v>
+        <v>0.02444098244360307</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1110865974.089007</v>
+        <v>1575712018.413907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1475628017380251</v>
+        <v>0.09842864833580697</v>
       </c>
       <c r="G40" t="n">
-        <v>0.043800797649745</v>
+        <v>0.05936978484080278</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2171580782.621727</v>
+        <v>2913079941.491857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1524365519044646</v>
+        <v>0.1015101964747093</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03586343883711637</v>
+        <v>0.04637927358546517</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2833282488.847389</v>
+        <v>3838466415.264536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1107661610146125</v>
+        <v>0.0906385325344136</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03655557246858412</v>
+        <v>0.02922491016218963</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>18</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1873987829.019472</v>
+        <v>2338451608.811888</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1950640024165532</v>
+        <v>0.1307785957590123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02193156547743935</v>
+        <v>0.01678168453255311</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2344552089.907966</v>
+        <v>2281750278.986595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07809116432409763</v>
+        <v>0.1018784917416913</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02592364967199535</v>
+        <v>0.02717772222692944</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2523691441.134209</v>
+        <v>2456318018.322293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1882342473546306</v>
+        <v>0.1218034460066344</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04342628925738581</v>
+        <v>0.03796948969750524</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4650981410.524368</v>
+        <v>5366026964.837114</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1583646673270989</v>
+        <v>0.1120141488827624</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04563190812128546</v>
+        <v>0.05155861207603014</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>18</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5026371530.886692</v>
+        <v>4589478401.697269</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1625504538226393</v>
+        <v>0.1624999226120908</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03984975253037441</v>
+        <v>0.05393808134873321</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>18</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4251034604.378591</v>
+        <v>3472136056.854035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08895652661793599</v>
+        <v>0.1066910689436012</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03787427750105796</v>
+        <v>0.03306953165075582</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1275483509.422915</v>
+        <v>1223762204.99907</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1530446740831317</v>
+        <v>0.135959772673801</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02978065139216664</v>
+        <v>0.03257973091852395</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3226370510.288836</v>
+        <v>4156364475.939916</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122572955763035</v>
+        <v>0.1148071989865229</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05357096558676069</v>
+        <v>0.04039565017110637</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1322130391.694396</v>
+        <v>1132649214.774558</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1809589007543094</v>
+        <v>0.1291530264360645</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05198621914821629</v>
+        <v>0.04165695792472106</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4186063501.490548</v>
+        <v>3817335955.007917</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08961516641050374</v>
+        <v>0.1169927290055884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04965215728689322</v>
+        <v>0.04654436788493604</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>18</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.5409329526003</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2405489794.269815</v>
+        <v>3301278124.843978</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2010105044565557</v>
+        <v>0.1304170526619096</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03044636635464114</v>
+        <v>0.03147443827777033</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="n">
+        <v>150.3718783681662</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3312065582.940476</v>
+        <v>3293398556.025827</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1396736111536552</v>
+        <v>0.1522613482250076</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05042406503218094</v>
+        <v>0.0389142645316523</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3888855637.824286</v>
+        <v>3761646055.914623</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1762116870699047</v>
+        <v>0.1773248300855275</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02706379487267677</v>
+        <v>0.03212568865647409</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17</v>
+      </c>
+      <c r="K55" t="n">
+        <v>183.0247121369434</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302700097.406173</v>
+        <v>1872595892.338579</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1489379698811108</v>
+        <v>0.1625255602080729</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04053630767997084</v>
+        <v>0.0551458364647924</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2961267419.400451</v>
+        <v>3837694136.13663</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1321467009739384</v>
+        <v>0.1394895911008625</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0211075975927113</v>
+        <v>0.02597001578731347</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1411810694.684106</v>
+        <v>1293778344.035433</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1358890411847334</v>
+        <v>0.1268515181478224</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03645115989763388</v>
+        <v>0.02737630869540117</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4278924511.421884</v>
+        <v>4863725958.95722</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058180048137747</v>
+        <v>0.0804021647927638</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04975528851525283</v>
+        <v>0.03952156312626969</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>18</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2562478311.707975</v>
+        <v>3003790074.906031</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1249479421856183</v>
+        <v>0.1986968242755446</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03058089714787634</v>
+        <v>0.02193709605071242</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3258734125.209454</v>
+        <v>3089695856.978102</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1273705886574827</v>
+        <v>0.1322277665303801</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0264764175980714</v>
+        <v>0.02623535381756466</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1338479535.648443</v>
+        <v>1823650313.288742</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1800236924266596</v>
+        <v>0.1441707399391292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0481340053543977</v>
+        <v>0.03065533891929697</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5390955000.220633</v>
+        <v>4296783380.476658</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08427087256123628</v>
+        <v>0.09663232297201088</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03310062233580656</v>
+        <v>0.04344512006669788</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>18</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4469396147.524222</v>
+        <v>3652287485.308966</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1649029393622791</v>
+        <v>0.157804640802294</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03119056616979429</v>
+        <v>0.03437162967959535</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>17</v>
+      </c>
+      <c r="K64" t="n">
+        <v>187.927511252637</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4565915787.725786</v>
+        <v>5055899310.147364</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1688531047695632</v>
+        <v>0.1735464724091476</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02533091310420451</v>
+        <v>0.02190244107864855</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>17</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5093979762402</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5444077120.238806</v>
+        <v>4375560446.203659</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1048684969273481</v>
+        <v>0.1590132397282872</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03666245601081407</v>
+        <v>0.04099071483274185</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.74657259337</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2558942851.996563</v>
+        <v>2869688208.176373</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09537352860912728</v>
+        <v>0.09522151838212117</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03463978397853771</v>
+        <v>0.03594494284317573</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4250986463.285092</v>
+        <v>3778770604.52607</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1501098074200131</v>
+        <v>0.1589037401713293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03529734934526805</v>
+        <v>0.03328823186148617</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>17</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.1328278377696</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1968892335.914345</v>
+        <v>1839007429.778715</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1623746923672632</v>
+        <v>0.1763983631787211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05170980248072525</v>
+        <v>0.04726982402293509</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3260072222.192797</v>
+        <v>3110938651.429719</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06863888810979309</v>
+        <v>0.07448826993990161</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04045561337416115</v>
+        <v>0.04123351745187689</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="n">
+        <v>133.5268122165214</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4972550817.087655</v>
+        <v>5076343778.705192</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1767041348206366</v>
+        <v>0.1160733391367578</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02920795620476182</v>
+        <v>0.02527290814700928</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>18</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5290380056836</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1573190184.087129</v>
+        <v>2055074753.5541</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1062964540167984</v>
+        <v>0.08164838975466077</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03531540948131288</v>
+        <v>0.05273506794740992</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3565327207.62214</v>
+        <v>2734631247.97245</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09443614992029566</v>
+        <v>0.08443984663491069</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03660844841365594</v>
+        <v>0.03320891725533374</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3502484099.401396</v>
+        <v>3284245294.557675</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1810111151928335</v>
+        <v>0.1180815103761193</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02435517888420692</v>
+        <v>0.02611876217099537</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2324692054.570549</v>
+        <v>1762775803.726304</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1405407406586635</v>
+        <v>0.148025822003602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02549062861139927</v>
+        <v>0.02677469856606744</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3709066302.37926</v>
+        <v>4877440031.92469</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1048872228763099</v>
+        <v>0.07826063842999471</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02438359412492719</v>
+        <v>0.0277008559539715</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.6407028124008</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1443219669.356019</v>
+        <v>2274886912.262088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1514772641109306</v>
+        <v>0.1215360550827664</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03041655983876714</v>
+        <v>0.0272378141106873</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3535094424.940445</v>
+        <v>4518275446.742622</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09249467730648356</v>
+        <v>0.08651855405600073</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05439407621995324</v>
+        <v>0.03636959949597417</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1550895840.443564</v>
+        <v>1922248493.265598</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1489876887603255</v>
+        <v>0.1759622047551997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03035452272861757</v>
+        <v>0.03182905974717335</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5049593472.261356</v>
+        <v>4124445443.867814</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1066632635782569</v>
+        <v>0.08593294332333784</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03598657048865236</v>
+        <v>0.03057930193542672</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>18</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3150597467.834527</v>
+        <v>4481720799.859117</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08706972250952173</v>
+        <v>0.1352994949930729</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02081099865978422</v>
+        <v>0.02931495022306549</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>18</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5440461061.150554</v>
+        <v>3950542920.437384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1921088096896049</v>
+        <v>0.1885883566855879</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02222502924709357</v>
+        <v>0.02442283089142415</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>18</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2124910382.963484</v>
+        <v>1955507288.116949</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1090794322465661</v>
+        <v>0.1013007511341585</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04080713438728138</v>
+        <v>0.03361282283502383</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2230228392.217103</v>
+        <v>2593033039.488539</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09819129869921396</v>
+        <v>0.1070405905271403</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04151825216075128</v>
+        <v>0.0375342502629667</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3399810852.831941</v>
+        <v>2472333465.176066</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1679794738542413</v>
+        <v>0.1465070301767575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04410240352517253</v>
+        <v>0.04368833400032826</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="n">
+        <v>96.64773810727455</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2695328403.728778</v>
+        <v>2154447900.493008</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1307208826209112</v>
+        <v>0.1094160328007101</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02290818505997433</v>
+        <v>0.02179703477056021</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1205815357.073629</v>
+        <v>1480506914.06178</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1488390445608334</v>
+        <v>0.132631511905657</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03616190674754906</v>
+        <v>0.04262794711177734</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3214756970.440577</v>
+        <v>2989659790.655101</v>
       </c>
       <c r="F88" t="n">
-        <v>0.129028967174913</v>
+        <v>0.1553830625371553</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02962329125862631</v>
+        <v>0.03440596565114075</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3584,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3177483417.301178</v>
+        <v>2899309090.365973</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1479499256262439</v>
+        <v>0.0987123293606781</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02813784412297852</v>
+        <v>0.03614495922256391</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="n">
+        <v>125.2349879764569</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1504601897.902012</v>
+        <v>1995644616.456087</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09421672697160965</v>
+        <v>0.1041586958840681</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03557506941472023</v>
+        <v>0.05260097557314986</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877365241.315587</v>
+        <v>1851300765.498497</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1235909808055522</v>
+        <v>0.1222368383756727</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04981947420759068</v>
+        <v>0.06181742414429338</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2883231407.723198</v>
+        <v>2168680485.037329</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07908228770668169</v>
+        <v>0.06938810705130838</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03290857738015802</v>
+        <v>0.03439511368084885</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3734085511.03381</v>
+        <v>3035677855.207299</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118612343508917</v>
+        <v>0.09205007063538698</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03983647478379013</v>
+        <v>0.05047100759321085</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>16</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1954149287.170584</v>
+        <v>2233538523.270226</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1141958504910787</v>
+        <v>0.1168029583634155</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04088676166436388</v>
+        <v>0.04101536268370273</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3033424345.82455</v>
+        <v>2997077755.030797</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08923013164323346</v>
+        <v>0.09044414008910837</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04085517634113996</v>
+        <v>0.04729753433147516</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1462870047.881231</v>
+        <v>1753577592.831842</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1309162190792611</v>
+        <v>0.1121302464583009</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03582490769479953</v>
+        <v>0.03345324323254858</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5197974693.485901</v>
+        <v>4696290853.609288</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1387386175966927</v>
+        <v>0.1194635640067676</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02623897462620883</v>
+        <v>0.02790445139316221</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>18</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3311336765.414212</v>
+        <v>3130902858.797639</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07817175035216327</v>
+        <v>0.09989649500922634</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02940198073374072</v>
+        <v>0.02301144148497698</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3011730771.354</v>
+        <v>2845414955.174342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1324709905111859</v>
+        <v>0.1364307322494221</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03136373131856721</v>
+        <v>0.02877309161130845</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3469258949.20111</v>
+        <v>4625487999.596034</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1483859097063312</v>
+        <v>0.1149301950652485</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01740832370568612</v>
+        <v>0.02314646476861999</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>18</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2481523454.886808</v>
+        <v>2227728947.905277</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2017703394124176</v>
+        <v>0.1688399697065716</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0538612556243609</v>
+        <v>0.04189624685485215</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
